--- a/target/classes/com/billhub/qa/testdata/Po_invoice_verification_with_different_data_in_2_sheets.xlsx
+++ b/target/classes/com/billhub/qa/testdata/Po_invoice_verification_with_different_data_in_2_sheets.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9FB51C-0B7D-4E81-9260-19A0B0EF3769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Memo_Verification_details" sheetId="1" r:id="rId1"/>
@@ -1011,7 +1010,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1408,35 +1407,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="9" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="9" width="23.08984375" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
-    <col min="16" max="16" width="18.109375" customWidth="1"/>
-    <col min="17" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="19.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" customWidth="1"/>
+    <col min="16" max="16" width="18.08984375" customWidth="1"/>
+    <col min="17" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -1535,26 +1534,26 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" promptTitle="Warning" prompt="Do not edit value" sqref="B2:I2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" promptTitle="Warning" prompt="Do not edit value" sqref="B2:I2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Tax Code'!$A$2:$A$70</xm:f>
           </x14:formula1>
           <xm:sqref>K2:K7001</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+        <x14:dataValidation type="list" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Withholding Tax'!$C$2:$C$16</xm:f>
           </x14:formula1>
           <xm:sqref>L2:L7001</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Payment Term'!$A$2:$A$76</xm:f>
           </x14:formula1>
@@ -1567,29 +1566,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
-    <col min="8" max="11" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" customWidth="1"/>
+    <col min="7" max="7" width="20.08984375" customWidth="1"/>
+    <col min="8" max="11" width="8.54296875" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
-    <col min="17" max="1027" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" customWidth="1"/>
+    <col min="15" max="15" width="21.453125" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" customWidth="1"/>
+    <col min="17" max="1027" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,7 +1696,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" promptTitle="Warning" prompt="Do not edit value" sqref="B2" xr:uid="{11E7FBF8-F896-44D3-82CA-02A2D846610B}"/>
+    <dataValidation showInputMessage="1" promptTitle="Warning" prompt="Do not edit value" sqref="B2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1705,19 +1704,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1951,22 +1950,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="48.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="48.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1977,7 +1976,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -1999,7 +1998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2010,7 +2009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -2021,7 +2020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -2054,7 +2053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>99</v>
       </c>
@@ -2120,7 +2119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -2197,7 +2196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -2208,7 +2207,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>121</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>141</v>
       </c>
@@ -2351,7 +2350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -2373,7 +2372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>151</v>
       </c>
@@ -2406,7 +2405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>157</v>
       </c>
@@ -2439,7 +2438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>159</v>
       </c>
@@ -2450,7 +2449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>163</v>
       </c>
@@ -2472,7 +2471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>165</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>169</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>171</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>177</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>185</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>187</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>189</v>
       </c>
@@ -2615,7 +2614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -2626,7 +2625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>193</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>195</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>197</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>199</v>
       </c>
@@ -2670,7 +2669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>201</v>
       </c>
@@ -2681,7 +2680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>203</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>205</v>
       </c>
@@ -2703,7 +2702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>209</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -2743,21 +2742,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" customWidth="1"/>
-    <col min="3" max="1025" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="42.36328125" customWidth="1"/>
+    <col min="3" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>212</v>
       </c>
@@ -2765,7 +2764,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>218</v>
       </c>
@@ -2789,7 +2788,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>220</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -2805,7 +2804,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>224</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -2821,7 +2820,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>228</v>
       </c>
@@ -2829,7 +2828,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>230</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>236</v>
       </c>
@@ -2861,7 +2860,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>238</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>240</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>242</v>
       </c>
@@ -2885,7 +2884,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>244</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>246</v>
       </c>
@@ -2901,7 +2900,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>248</v>
       </c>
@@ -2909,7 +2908,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>250</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>252</v>
       </c>
@@ -2925,7 +2924,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>254</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>256</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>258</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>260</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>262</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>264</v>
       </c>
@@ -2973,7 +2972,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>266</v>
       </c>
@@ -2981,7 +2980,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>268</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>270</v>
       </c>
@@ -2997,7 +2996,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>272</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>274</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>276</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>278</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>280</v>
       </c>
@@ -3037,7 +3036,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>282</v>
       </c>
@@ -3045,7 +3044,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>284</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>286</v>
       </c>
@@ -3061,7 +3060,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>288</v>
       </c>
@@ -3069,7 +3068,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>290</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>291</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>292</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>293</v>
       </c>
@@ -3101,7 +3100,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>294</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>295</v>
       </c>
@@ -3117,7 +3116,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>296</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>297</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>298</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>299</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>300</v>
       </c>
@@ -3157,7 +3156,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>301</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>302</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>303</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>304</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>305</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>306</v>
       </c>
@@ -3205,7 +3204,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>307</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>308</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>309</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>310</v>
       </c>
@@ -3237,7 +3236,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>311</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>312</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>313</v>
       </c>
@@ -3261,7 +3260,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>314</v>
       </c>
@@ -3269,7 +3268,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>316</v>
       </c>
@@ -3285,7 +3284,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>317</v>
       </c>
@@ -3293,7 +3292,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>318</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>319</v>
       </c>
@@ -3309,7 +3308,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>320</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>321</v>
       </c>
@@ -3325,7 +3324,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>322</v>
       </c>
@@ -3333,7 +3332,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>323</v>
       </c>
@@ -3341,7 +3340,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>324</v>
       </c>
@@ -3349,7 +3348,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>325</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>326</v>
       </c>
